--- a/pages/api/test/user.xlsx
+++ b/pages/api/test/user.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>firstName</t>
+    <t>name</t>
   </si>
   <si>
     <t>lastName</t>
@@ -31,10 +31,31 @@
     <t>date of birth</t>
   </si>
   <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440000</t>
   </si>
   <si>
-    <t>John</t>
+    <t>John Smith</t>
   </si>
   <si>
     <t>Smith</t>
@@ -43,10 +64,22 @@
     <t>Owner</t>
   </si>
   <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>john.smith@example.com</t>
+  </si>
+  <si>
+    <t>LandLord</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440001</t>
   </si>
   <si>
-    <t>Emily</t>
+    <t>Emily Davis</t>
   </si>
   <si>
     <t>Davis</t>
@@ -55,6 +88,12 @@
     <t>Tenant</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>emily.davis@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440002</t>
   </si>
   <si>
@@ -64,6 +103,9 @@
     <t>Brown</t>
   </si>
   <si>
+    <t>michael.brown@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440003</t>
   </si>
   <si>
@@ -73,6 +115,9 @@
     <t>Wilson</t>
   </si>
   <si>
+    <t>jessica.wilson@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440004</t>
   </si>
   <si>
@@ -82,6 +127,9 @@
     <t>Johnson</t>
   </si>
   <si>
+    <t>william.johnson@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440005</t>
   </si>
   <si>
@@ -91,6 +139,9 @@
     <t>Lee</t>
   </si>
   <si>
+    <t>sarah.lee@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440006</t>
   </si>
   <si>
@@ -100,6 +151,9 @@
     <t>Harris</t>
   </si>
   <si>
+    <t>james.harris@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440007</t>
   </si>
   <si>
@@ -109,6 +163,9 @@
     <t>Martinez</t>
   </si>
   <si>
+    <t>olivia.martinez@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440008</t>
   </si>
   <si>
@@ -118,6 +175,12 @@
     <t>Clark</t>
   </si>
   <si>
+    <t>benjamin.clark@example.com</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440009</t>
   </si>
   <si>
@@ -127,6 +190,9 @@
     <t>Walker</t>
   </si>
   <si>
+    <t>chloe.walker@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440010</t>
   </si>
   <si>
@@ -136,6 +202,9 @@
     <t>Allen</t>
   </si>
   <si>
+    <t>alexander.allen@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440011</t>
   </si>
   <si>
@@ -145,6 +214,9 @@
     <t>Adams</t>
   </si>
   <si>
+    <t>mia.adams@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440012</t>
   </si>
   <si>
@@ -154,6 +226,9 @@
     <t>White</t>
   </si>
   <si>
+    <t>henry.white@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440013</t>
   </si>
   <si>
@@ -163,6 +238,9 @@
     <t>Thompson</t>
   </si>
   <si>
+    <t>charlotte.thompson@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440014</t>
   </si>
   <si>
@@ -172,6 +250,9 @@
     <t>Robinson</t>
   </si>
   <si>
+    <t>daniel.robinson@example.com</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440015</t>
   </si>
   <si>
@@ -179,6 +260,9 @@
   </si>
   <si>
     <t>King</t>
+  </si>
+  <si>
+    <t>isabella.king@example.com</t>
   </si>
 </sst>
 </file>
@@ -463,325 +547,682 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>29235.0</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.36434459E9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>2.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>33780.0</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.364344591E9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1">
         <v>3.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>31118.0</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.364344592E9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>33146.0</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.364344593E9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>5.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
         <v>28814.0</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.364344594E9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>6.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>31963.0</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4.364344595E9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>7.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>30059.0</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4.364344596E9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>8.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>34265.0</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.364344597E9</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1">
         <v>9.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>29644.0</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.364344598E9</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1">
         <v>10.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
         <v>34927.0</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.364344599E9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1">
         <v>11.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2">
         <v>30654.0</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.3643446E9</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1">
         <v>12.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>32637.0</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4.364344601E9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1">
         <v>13.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2">
         <v>28440.0</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.364344602E9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1">
         <v>14.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <v>34536.0</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4.364344603E9</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1">
         <v>15.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2">
         <v>30710.0</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.364344604E9</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1">
         <v>16.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
         <v>33314.0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.364344605E9</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/pages/api/test/user.xlsx
+++ b/pages/api/test/user.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,9 @@
     <t>LandLord</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/100</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440001</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>emily.davis@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/101</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440002</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t>michael.brown@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/102</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440003</t>
   </si>
   <si>
@@ -118,6 +127,9 @@
     <t>jessica.wilson@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/104</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440004</t>
   </si>
   <si>
@@ -128,6 +140,9 @@
   </si>
   <si>
     <t>william.johnson@example.com</t>
+  </si>
+  <si>
+    <t>https://i.pravatar.cc/250</t>
   </si>
   <si>
     <t>550e8400-e29b-41d4-a716-446655440005</t>
@@ -272,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -283,6 +298,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -307,6 +330,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -606,25 +635,25 @@
       <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1">
         <v>2.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>33780.0</v>
@@ -633,13 +662,13 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1">
         <v>4.364344591E9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>17</v>
@@ -647,19 +676,19 @@
       <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
+      <c r="M3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
         <v>3.0</v>
@@ -680,7 +709,7 @@
         <v>4.364344592E9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>17</v>
@@ -688,25 +717,25 @@
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
+      <c r="M4" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
         <v>33146.0</v>
@@ -715,13 +744,13 @@
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1">
         <v>4.364344593E9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>17</v>
@@ -729,19 +758,19 @@
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>17</v>
+      <c r="M5" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>5.0</v>
@@ -762,7 +791,7 @@
         <v>4.364344594E9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>17</v>
@@ -770,25 +799,25 @@
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>17</v>
+      <c r="M6" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>6.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
         <v>31963.0</v>
@@ -797,13 +826,13 @@
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1">
         <v>4.364344595E9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>17</v>
@@ -811,19 +840,19 @@
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
+      <c r="M7" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
         <v>7.0</v>
@@ -844,7 +873,7 @@
         <v>4.364344596E9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
@@ -852,25 +881,25 @@
       <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>17</v>
+      <c r="M8" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1">
         <v>8.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
         <v>34265.0</v>
@@ -879,13 +908,13 @@
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1">
         <v>4.364344597E9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>17</v>
@@ -893,19 +922,19 @@
       <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>17</v>
+      <c r="M9" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1">
         <v>9.0</v>
@@ -926,33 +955,33 @@
         <v>4.364344598E9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1">
         <v>10.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2">
         <v>34927.0</v>
@@ -961,33 +990,33 @@
         <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1">
         <v>4.364344599E9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1">
         <v>11.0</v>
@@ -1008,33 +1037,33 @@
         <v>4.3643446E9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1">
         <v>12.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
         <v>32637.0</v>
@@ -1043,33 +1072,33 @@
         <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13" s="1">
         <v>4.364344601E9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1">
         <v>13.0</v>
@@ -1090,33 +1119,33 @@
         <v>4.364344602E9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1">
         <v>14.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2">
         <v>34536.0</v>
@@ -1125,33 +1154,33 @@
         <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15" s="1">
         <v>4.364344603E9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1">
         <v>15.0</v>
@@ -1172,33 +1201,33 @@
         <v>4.364344604E9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D17" s="1">
         <v>16.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2">
         <v>33314.0</v>
@@ -1207,25 +1236,43 @@
         <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" s="1">
         <v>4.364344605E9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="M2"/>
+    <hyperlink r:id="rId2" ref="M3"/>
+    <hyperlink r:id="rId3" ref="M4"/>
+    <hyperlink r:id="rId4" ref="M5"/>
+    <hyperlink r:id="rId5" ref="M6"/>
+    <hyperlink r:id="rId6" ref="M7"/>
+    <hyperlink r:id="rId7" ref="M8"/>
+    <hyperlink r:id="rId8" ref="M9"/>
+    <hyperlink r:id="rId9" ref="M10"/>
+    <hyperlink r:id="rId10" ref="M11"/>
+    <hyperlink r:id="rId11" ref="M12"/>
+    <hyperlink r:id="rId12" ref="M13"/>
+    <hyperlink r:id="rId13" ref="M14"/>
+    <hyperlink r:id="rId14" ref="M15"/>
+    <hyperlink r:id="rId15" ref="M16"/>
+    <hyperlink r:id="rId16" ref="M17"/>
+  </hyperlinks>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/pages/api/test/user.xlsx
+++ b/pages/api/test/user.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -19,16 +19,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>property_id</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>date of birth</t>
+    <t>property id</t>
+  </si>
+  <si>
+    <t>dob</t>
   </si>
   <si>
     <t>bio</t>
@@ -58,12 +52,6 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -73,7 +61,7 @@
     <t>john.smith@example.com</t>
   </si>
   <si>
-    <t>LandLord</t>
+    <t>Actor</t>
   </si>
   <si>
     <t>https://i.pravatar.cc/100</t>
@@ -85,12 +73,6 @@
     <t>Emily Davis</t>
   </si>
   <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Tenant</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -106,9 +88,6 @@
     <t>Michael</t>
   </si>
   <si>
-    <t>Brown</t>
-  </si>
-  <si>
     <t>michael.brown@example.com</t>
   </si>
   <si>
@@ -121,9 +100,6 @@
     <t>Jessica</t>
   </si>
   <si>
-    <t>Wilson</t>
-  </si>
-  <si>
     <t>jessica.wilson@example.com</t>
   </si>
   <si>
@@ -136,9 +112,6 @@
     <t>William</t>
   </si>
   <si>
-    <t>Johnson</t>
-  </si>
-  <si>
     <t>william.johnson@example.com</t>
   </si>
   <si>
@@ -151,9 +124,6 @@
     <t>Sarah</t>
   </si>
   <si>
-    <t>Lee</t>
-  </si>
-  <si>
     <t>sarah.lee@example.com</t>
   </si>
   <si>
@@ -163,9 +133,6 @@
     <t>James</t>
   </si>
   <si>
-    <t>Harris</t>
-  </si>
-  <si>
     <t>james.harris@example.com</t>
   </si>
   <si>
@@ -175,9 +142,6 @@
     <t>Olivia</t>
   </si>
   <si>
-    <t>Martinez</t>
-  </si>
-  <si>
     <t>olivia.martinez@example.com</t>
   </si>
   <si>
@@ -187,24 +151,15 @@
     <t>Benjamin</t>
   </si>
   <si>
-    <t>Clark</t>
-  </si>
-  <si>
     <t>benjamin.clark@example.com</t>
   </si>
   <si>
-    <t>Agent</t>
-  </si>
-  <si>
     <t>550e8400-e29b-41d4-a716-446655440009</t>
   </si>
   <si>
     <t>Chloe</t>
   </si>
   <si>
-    <t>Walker</t>
-  </si>
-  <si>
     <t>chloe.walker@example.com</t>
   </si>
   <si>
@@ -214,9 +169,6 @@
     <t>Alexander</t>
   </si>
   <si>
-    <t>Allen</t>
-  </si>
-  <si>
     <t>alexander.allen@example.com</t>
   </si>
   <si>
@@ -226,9 +178,6 @@
     <t>Mia</t>
   </si>
   <si>
-    <t>Adams</t>
-  </si>
-  <si>
     <t>mia.adams@example.com</t>
   </si>
   <si>
@@ -238,9 +187,6 @@
     <t>Henry</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>henry.white@example.com</t>
   </si>
   <si>
@@ -250,9 +196,6 @@
     <t>Charlotte</t>
   </si>
   <si>
-    <t>Thompson</t>
-  </si>
-  <si>
     <t>charlotte.thompson@example.com</t>
   </si>
   <si>
@@ -262,9 +205,6 @@
     <t>Daniel</t>
   </si>
   <si>
-    <t>Robinson</t>
-  </si>
-  <si>
     <t>daniel.robinson@example.com</t>
   </si>
   <si>
@@ -272,9 +212,6 @@
   </si>
   <si>
     <t>Isabella</t>
-  </si>
-  <si>
-    <t>King</t>
   </si>
   <si>
     <t>isabella.king@example.com</t>
@@ -591,687 +528,585 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>29235.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>4.36434459E9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2">
-        <v>29235.0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4.36434459E9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>33780.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.364344591E9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2">
-        <v>33780.0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4.364344591E9</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
         <v>3.0</v>
       </c>
+      <c r="D4" s="2">
+        <v>31118.0</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>31118.0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.364344592E9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4.364344592E9</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
         <v>4.0</v>
       </c>
+      <c r="D5" s="2">
+        <v>33146.0</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2">
-        <v>33146.0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.364344593E9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4.364344593E9</v>
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
         <v>5.0</v>
       </c>
+      <c r="D6" s="2">
+        <v>28814.0</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2">
-        <v>28814.0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.364344594E9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4.364344594E9</v>
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
         <v>6.0</v>
       </c>
+      <c r="D7" s="2">
+        <v>31963.0</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2">
-        <v>31963.0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.364344595E9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1">
-        <v>4.364344595E9</v>
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1">
         <v>7.0</v>
       </c>
+      <c r="D8" s="2">
+        <v>30059.0</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2">
-        <v>30059.0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.364344596E9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4.364344596E9</v>
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="1">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1">
         <v>8.0</v>
       </c>
+      <c r="D9" s="2">
+        <v>34265.0</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2">
-        <v>34265.0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.364344597E9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4.364344597E9</v>
+        <v>43</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="1">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1">
         <v>9.0</v>
       </c>
+      <c r="D10" s="2">
+        <v>29644.0</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2">
-        <v>29644.0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.364344598E9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4.364344598E9</v>
+        <v>46</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
         <v>10.0</v>
       </c>
+      <c r="D11" s="2">
+        <v>34927.0</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2">
-        <v>34927.0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.364344599E9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4.364344599E9</v>
+        <v>49</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="1">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1">
         <v>11.0</v>
       </c>
+      <c r="D12" s="2">
+        <v>30654.0</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2">
-        <v>30654.0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.3643446E9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4.3643446E9</v>
+        <v>52</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="1">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
         <v>12.0</v>
       </c>
+      <c r="D13" s="2">
+        <v>32637.0</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2">
-        <v>32637.0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.364344601E9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="1">
-        <v>4.364344601E9</v>
+        <v>55</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="1">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1">
         <v>13.0</v>
       </c>
+      <c r="D14" s="2">
+        <v>28440.0</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2">
-        <v>28440.0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4.364344602E9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1">
-        <v>4.364344602E9</v>
+        <v>58</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="1">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
         <v>14.0</v>
       </c>
+      <c r="D15" s="2">
+        <v>34536.0</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="2">
-        <v>34536.0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4.364344603E9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="1">
-        <v>4.364344603E9</v>
+        <v>61</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="1">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1">
         <v>15.0</v>
       </c>
+      <c r="D16" s="2">
+        <v>30710.0</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2">
-        <v>30710.0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.364344604E9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4.364344604E9</v>
+        <v>64</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="1">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1">
         <v>16.0</v>
       </c>
+      <c r="D17" s="2">
+        <v>33314.0</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="2">
-        <v>33314.0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.364344605E9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="1">
-        <v>4.364344605E9</v>
+        <v>67</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="M2"/>
-    <hyperlink r:id="rId2" ref="M3"/>
-    <hyperlink r:id="rId3" ref="M4"/>
-    <hyperlink r:id="rId4" ref="M5"/>
-    <hyperlink r:id="rId5" ref="M6"/>
-    <hyperlink r:id="rId6" ref="M7"/>
-    <hyperlink r:id="rId7" ref="M8"/>
-    <hyperlink r:id="rId8" ref="M9"/>
-    <hyperlink r:id="rId9" ref="M10"/>
-    <hyperlink r:id="rId10" ref="M11"/>
-    <hyperlink r:id="rId11" ref="M12"/>
-    <hyperlink r:id="rId12" ref="M13"/>
-    <hyperlink r:id="rId13" ref="M14"/>
-    <hyperlink r:id="rId14" ref="M15"/>
-    <hyperlink r:id="rId15" ref="M16"/>
-    <hyperlink r:id="rId16" ref="M17"/>
+    <hyperlink r:id="rId1" ref="K2"/>
+    <hyperlink r:id="rId2" ref="K3"/>
+    <hyperlink r:id="rId3" ref="K4"/>
+    <hyperlink r:id="rId4" ref="K5"/>
+    <hyperlink r:id="rId5" ref="K6"/>
+    <hyperlink r:id="rId6" ref="K7"/>
+    <hyperlink r:id="rId7" ref="K8"/>
+    <hyperlink r:id="rId8" ref="K9"/>
+    <hyperlink r:id="rId9" ref="K10"/>
+    <hyperlink r:id="rId10" ref="K11"/>
+    <hyperlink r:id="rId11" ref="K12"/>
+    <hyperlink r:id="rId12" ref="K13"/>
+    <hyperlink r:id="rId13" ref="K14"/>
+    <hyperlink r:id="rId14" ref="K15"/>
+    <hyperlink r:id="rId15" ref="K16"/>
+    <hyperlink r:id="rId16" ref="K17"/>
   </hyperlinks>
   <drawing r:id="rId17"/>
 </worksheet>

--- a/pages/api/test/user.xlsx
+++ b/pages/api/test/user.xlsx
@@ -61,7 +61,7 @@
     <t>john.smith@example.com</t>
   </si>
   <si>
-    <t>Actor</t>
+    <t>actor</t>
   </si>
   <si>
     <t>https://i.pravatar.cc/100</t>

--- a/pages/api/test/user.xlsx
+++ b/pages/api/test/user.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -61,7 +61,7 @@
     <t>john.smith@example.com</t>
   </si>
   <si>
-    <t>actor</t>
+    <t>landlord</t>
   </si>
   <si>
     <t>https://i.pravatar.cc/100</t>
@@ -136,6 +136,9 @@
     <t>james.harris@example.com</t>
   </si>
   <si>
+    <t>agent</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440007</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t>henry.white@example.com</t>
+  </si>
+  <si>
+    <t>tenant</t>
   </si>
   <si>
     <t>550e8400-e29b-41d4-a716-446655440013</t>
@@ -224,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -235,6 +241,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -259,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -269,10 +279,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -554,13 +567,13 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
+      <c r="I2" s="3">
+        <v>43906.0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -589,13 +602,13 @@
       <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+      <c r="I3" s="3">
+        <v>43907.0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -624,13 +637,13 @@
       <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
+      <c r="I4" s="3">
+        <v>43908.0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -659,13 +672,13 @@
       <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
+      <c r="I5" s="3">
+        <v>43909.0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -694,13 +707,13 @@
       <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
+      <c r="I6" s="3">
+        <v>43910.0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -729,13 +742,13 @@
       <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
+      <c r="I7" s="3">
+        <v>43911.0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -764,22 +777,22 @@
       <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
+      <c r="I8" s="3">
+        <v>43912.0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>8.0</v>
@@ -797,24 +810,24 @@
         <v>4.364344597E9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="I9" s="3">
+        <v>43913.0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1">
         <v>9.0</v>
@@ -832,24 +845,24 @@
         <v>4.364344598E9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="I10" s="3">
+        <v>43914.0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>10.0</v>
@@ -867,24 +880,24 @@
         <v>4.364344599E9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="I11" s="3">
+        <v>43915.0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1">
         <v>11.0</v>
@@ -902,24 +915,24 @@
         <v>4.3643446E9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="I12" s="3">
+        <v>43916.0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>12.0</v>
@@ -937,24 +950,24 @@
         <v>4.364344601E9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="I13" s="3">
+        <v>43917.0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1">
         <v>13.0</v>
@@ -972,24 +985,24 @@
         <v>4.364344602E9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="I14" s="3">
+        <v>43918.0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1">
         <v>14.0</v>
@@ -1007,24 +1020,24 @@
         <v>4.364344603E9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
+      </c>
+      <c r="I15" s="3">
+        <v>43919.0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1">
         <v>15.0</v>
@@ -1042,24 +1055,24 @@
         <v>4.364344604E9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="I16" s="3">
+        <v>43920.0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1">
         <v>16.0</v>
@@ -1077,15 +1090,15 @@
         <v>4.364344605E9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
+      </c>
+      <c r="I17" s="3">
+        <v>43921.0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
